--- a/Sample_Potato_Price_Data.xlsx
+++ b/Sample_Potato_Price_Data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheshan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF19509-7FAA-4F0B-9187-5F833AF081D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -17,15 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Peliyagoda Average Potato Price</t>
-  </si>
-  <si>
-    <t>Kandy Average Potato Price</t>
-  </si>
-  <si>
-    <t>Dambulla Average Potato Price</t>
   </si>
   <si>
     <t>Peliyagoda_Temperature</t>
@@ -45,15 +42,24 @@
   <si>
     <t>Dambulla_Rainfall</t>
   </si>
+  <si>
+    <t>peliyagoda average Potato price</t>
+  </si>
+  <si>
+    <t>kandy average Potato price</t>
+  </si>
+  <si>
+    <t>dambulla average Potato price</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +123,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +175,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -195,6 +209,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,9 +244,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,46 +420,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -454,7 +472,7 @@
         <v>100.8</v>
       </c>
       <c r="D2">
-        <v>157.83</v>
+        <v>157.83000000000001</v>
       </c>
       <c r="E2">
         <v>34</v>
@@ -475,7 +493,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44928</v>
       </c>
@@ -483,7 +501,7 @@
         <v>121.5</v>
       </c>
       <c r="C3">
-        <v>150.45</v>
+        <v>150.44999999999999</v>
       </c>
       <c r="D3">
         <v>154.85</v>
@@ -492,7 +510,7 @@
         <v>30.5</v>
       </c>
       <c r="F3">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="G3">
         <v>20.3</v>
@@ -504,10 +522,10 @@
         <v>31.1</v>
       </c>
       <c r="J3">
-        <v>4.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44929</v>
       </c>
@@ -521,10 +539,10 @@
         <v>149.41</v>
       </c>
       <c r="E4">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F4">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="G4">
         <v>23.9</v>
@@ -536,15 +554,15 @@
         <v>30.3</v>
       </c>
       <c r="J4">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44930</v>
       </c>
       <c r="B5">
-        <v>133.39</v>
+        <v>133.38999999999999</v>
       </c>
       <c r="C5">
         <v>137.59</v>
@@ -571,7 +589,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44931</v>
       </c>
@@ -603,7 +621,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44932</v>
       </c>
@@ -626,7 +644,7 @@
         <v>26.4</v>
       </c>
       <c r="H7">
-        <v>16.15</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="I7">
         <v>25.1</v>
@@ -635,7 +653,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44933</v>
       </c>
@@ -667,7 +685,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44934</v>
       </c>
@@ -678,7 +696,7 @@
         <v>130.43</v>
       </c>
       <c r="D9">
-        <v>94.09999999999999</v>
+        <v>94.1</v>
       </c>
       <c r="E9">
         <v>34</v>
@@ -699,7 +717,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44935</v>
       </c>
@@ -728,10 +746,10 @@
         <v>24.9</v>
       </c>
       <c r="J10">
-        <v>8.279999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44936</v>
       </c>
@@ -763,7 +781,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44937</v>
       </c>
@@ -795,7 +813,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44938</v>
       </c>
@@ -827,7 +845,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44939</v>
       </c>
@@ -859,7 +877,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44940</v>
       </c>
@@ -891,7 +909,7 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44941</v>
       </c>
@@ -905,7 +923,7 @@
         <v>157.01</v>
       </c>
       <c r="E16">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F16">
         <v>3.98</v>
@@ -923,12 +941,12 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44942</v>
       </c>
       <c r="B17">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="C17">
         <v>160.94</v>
@@ -937,7 +955,7 @@
         <v>159.68</v>
       </c>
       <c r="E17">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F17">
         <v>0.49</v>
@@ -955,12 +973,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44943</v>
       </c>
       <c r="B18">
-        <v>133.23</v>
+        <v>133.22999999999999</v>
       </c>
       <c r="C18">
         <v>120.89</v>
@@ -972,13 +990,13 @@
         <v>29.1</v>
       </c>
       <c r="F18">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G18">
         <v>22.5</v>
       </c>
       <c r="H18">
-        <v>18.65</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="I18">
         <v>22.4</v>
@@ -987,15 +1005,15 @@
         <v>11.63</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44944</v>
       </c>
       <c r="B19">
-        <v>155.36</v>
+        <v>155.36000000000001</v>
       </c>
       <c r="C19">
-        <v>144.73</v>
+        <v>144.72999999999999</v>
       </c>
       <c r="D19">
         <v>140.29</v>
@@ -1019,7 +1037,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44945</v>
       </c>
@@ -1036,7 +1054,7 @@
         <v>26.5</v>
       </c>
       <c r="F20">
-        <v>16.99</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="G20">
         <v>20.2</v>
@@ -1051,7 +1069,7 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44946</v>
       </c>
@@ -1065,7 +1083,7 @@
         <v>110.77</v>
       </c>
       <c r="E21">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F21">
         <v>1.46</v>
@@ -1083,7 +1101,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44947</v>
       </c>
@@ -1100,7 +1118,7 @@
         <v>33.6</v>
       </c>
       <c r="F22">
-        <v>8.289999999999999</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="G22">
         <v>30</v>
@@ -1115,12 +1133,12 @@
         <v>12.17</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44948</v>
       </c>
       <c r="B23">
-        <v>161.89</v>
+        <v>161.88999999999999</v>
       </c>
       <c r="C23">
         <v>137.76</v>
@@ -1129,7 +1147,7 @@
         <v>130.54</v>
       </c>
       <c r="E23">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F23">
         <v>12.6</v>
@@ -1147,12 +1165,12 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44949</v>
       </c>
       <c r="B24">
-        <v>140.42</v>
+        <v>140.41999999999999</v>
       </c>
       <c r="C24">
         <v>154.5</v>
@@ -1170,30 +1188,30 @@
         <v>26.5</v>
       </c>
       <c r="H24">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="I24">
         <v>30.4</v>
       </c>
       <c r="J24">
-        <v>9.960000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44950</v>
       </c>
       <c r="B25">
-        <v>129.33</v>
+        <v>129.33000000000001</v>
       </c>
       <c r="C25">
         <v>137.12</v>
       </c>
       <c r="D25">
-        <v>142.36</v>
+        <v>142.36000000000001</v>
       </c>
       <c r="E25">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F25">
         <v>13.93</v>
@@ -1211,7 +1229,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44951</v>
       </c>
@@ -1228,7 +1246,7 @@
         <v>25.2</v>
       </c>
       <c r="F26">
-        <v>9.890000000000001</v>
+        <v>9.89</v>
       </c>
       <c r="G26">
         <v>26.5</v>
@@ -1243,18 +1261,18 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44952</v>
       </c>
       <c r="B27">
-        <v>140.2</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="C27">
         <v>122.69</v>
       </c>
       <c r="D27">
-        <v>130.89</v>
+        <v>130.88999999999999</v>
       </c>
       <c r="E27">
         <v>32.4</v>
@@ -1275,7 +1293,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44953</v>
       </c>
@@ -1304,10 +1322,10 @@
         <v>28.7</v>
       </c>
       <c r="J28">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44954</v>
       </c>
@@ -1321,7 +1339,7 @@
         <v>149.69</v>
       </c>
       <c r="E29">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F29">
         <v>0.11</v>
@@ -1339,7 +1357,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44955</v>
       </c>
@@ -1371,7 +1389,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44956</v>
       </c>
@@ -1403,7 +1421,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44957</v>
       </c>
@@ -1435,7 +1453,7 @@
         <v>13.11</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44958</v>
       </c>
@@ -1467,12 +1485,12 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44959</v>
       </c>
       <c r="B34">
-        <v>152.17</v>
+        <v>152.16999999999999</v>
       </c>
       <c r="C34">
         <v>161.46</v>
@@ -1499,7 +1517,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44960</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>22.2</v>
       </c>
       <c r="H35">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I35">
         <v>23.8</v>
@@ -1531,7 +1549,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44961</v>
       </c>
@@ -1545,7 +1563,7 @@
         <v>106.46</v>
       </c>
       <c r="E36">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F36">
         <v>10.36</v>
@@ -1554,7 +1572,7 @@
         <v>27</v>
       </c>
       <c r="H36">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="I36">
         <v>27.9</v>
@@ -1563,7 +1581,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44962</v>
       </c>
@@ -1571,7 +1589,7 @@
         <v>153.12</v>
       </c>
       <c r="C37">
-        <v>134.02</v>
+        <v>134.02000000000001</v>
       </c>
       <c r="D37">
         <v>98.39</v>
@@ -1595,7 +1613,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44963</v>
       </c>
@@ -1612,7 +1630,7 @@
         <v>27.2</v>
       </c>
       <c r="F38">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="G38">
         <v>21.7</v>
@@ -1627,12 +1645,12 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44964</v>
       </c>
       <c r="B39">
-        <v>157.11</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="C39">
         <v>153.24</v>
@@ -1641,7 +1659,7 @@
         <v>107.24</v>
       </c>
       <c r="E39">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F39">
         <v>16.97</v>
@@ -1656,10 +1674,10 @@
         <v>22.9</v>
       </c>
       <c r="J39">
-        <v>2.32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44965</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>171.7</v>
       </c>
       <c r="C40">
-        <v>153.61</v>
+        <v>153.61000000000001</v>
       </c>
       <c r="D40">
         <v>131.62</v>
@@ -1676,7 +1694,7 @@
         <v>29.6</v>
       </c>
       <c r="F40">
-        <v>9.130000000000001</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="G40">
         <v>27.5</v>
@@ -1691,18 +1709,18 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44966</v>
       </c>
       <c r="B41">
-        <v>154.64</v>
+        <v>154.63999999999999</v>
       </c>
       <c r="C41">
         <v>108.99</v>
       </c>
       <c r="D41">
-        <v>133.36</v>
+        <v>133.36000000000001</v>
       </c>
       <c r="E41">
         <v>28.1</v>
@@ -1723,15 +1741,15 @@
         <v>14.54</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44967</v>
       </c>
       <c r="B42">
-        <v>162.27</v>
+        <v>162.27000000000001</v>
       </c>
       <c r="C42">
-        <v>133.27</v>
+        <v>133.27000000000001</v>
       </c>
       <c r="D42">
         <v>119.35</v>
@@ -1755,7 +1773,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44968</v>
       </c>
@@ -1766,13 +1784,13 @@
         <v>138.49</v>
       </c>
       <c r="D43">
-        <v>130.86</v>
+        <v>130.86000000000001</v>
       </c>
       <c r="E43">
         <v>27.3</v>
       </c>
       <c r="F43">
-        <v>19.76</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="G43">
         <v>29.6</v>
@@ -1787,12 +1805,12 @@
         <v>10.39</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44969</v>
       </c>
       <c r="B44">
-        <v>133.67</v>
+        <v>133.66999999999999</v>
       </c>
       <c r="C44">
         <v>118.55</v>
@@ -1810,7 +1828,7 @@
         <v>21.1</v>
       </c>
       <c r="H44">
-        <v>17.44</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="I44">
         <v>25.3</v>
@@ -1819,12 +1837,12 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44970</v>
       </c>
       <c r="B45">
-        <v>137.36</v>
+        <v>137.36000000000001</v>
       </c>
       <c r="C45">
         <v>161.07</v>
@@ -1851,7 +1869,7 @@
         <v>12.78</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44971</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>28.3</v>
       </c>
       <c r="F46">
-        <v>17.83</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="G46">
         <v>23.1</v>
@@ -1883,7 +1901,7 @@
         <v>12.79</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44972</v>
       </c>
@@ -1915,7 +1933,7 @@
         <v>12.89</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44973</v>
       </c>
@@ -1929,7 +1947,7 @@
         <v>106.71</v>
       </c>
       <c r="E48">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="F48">
         <v>14.39</v>
@@ -1947,7 +1965,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44974</v>
       </c>
@@ -1979,18 +1997,18 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44975</v>
       </c>
       <c r="B50">
-        <v>158.14</v>
+        <v>158.13999999999999</v>
       </c>
       <c r="C50">
         <v>114.08</v>
       </c>
       <c r="D50">
-        <v>137.02</v>
+        <v>137.02000000000001</v>
       </c>
       <c r="E50">
         <v>31.4</v>
@@ -2011,12 +2029,12 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44976</v>
       </c>
       <c r="B51">
-        <v>141.89</v>
+        <v>141.88999999999999</v>
       </c>
       <c r="C51">
         <v>121.82</v>
@@ -2043,7 +2061,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44977</v>
       </c>
@@ -2057,16 +2075,16 @@
         <v>112.13</v>
       </c>
       <c r="E52">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F52">
-        <v>17.94</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="G52">
         <v>26.9</v>
       </c>
       <c r="H52">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="I52">
         <v>25.2</v>
@@ -2075,7 +2093,7 @@
         <v>13.09</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44978</v>
       </c>
@@ -2107,15 +2125,15 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44979</v>
       </c>
       <c r="B54">
-        <v>136.02</v>
+        <v>136.02000000000001</v>
       </c>
       <c r="C54">
-        <v>130.67</v>
+        <v>130.66999999999999</v>
       </c>
       <c r="D54">
         <v>95.08</v>
@@ -2139,7 +2157,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44980</v>
       </c>
@@ -2147,7 +2165,7 @@
         <v>176.2</v>
       </c>
       <c r="C55">
-        <v>136.23</v>
+        <v>136.22999999999999</v>
       </c>
       <c r="D55">
         <v>122.08</v>
@@ -2168,10 +2186,10 @@
         <v>27.1</v>
       </c>
       <c r="J55">
-        <v>9.470000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44981</v>
       </c>
@@ -2182,13 +2200,13 @@
         <v>108.47</v>
       </c>
       <c r="D56">
-        <v>159.89</v>
+        <v>159.88999999999999</v>
       </c>
       <c r="E56">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="F56">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="G56">
         <v>28.5</v>
@@ -2203,18 +2221,18 @@
         <v>13.81</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44982</v>
       </c>
       <c r="B57">
-        <v>156.55</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="C57">
         <v>115.73</v>
       </c>
       <c r="D57">
-        <v>159.73</v>
+        <v>159.72999999999999</v>
       </c>
       <c r="E57">
         <v>26.8</v>
@@ -2235,12 +2253,12 @@
         <v>14.96</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44983</v>
       </c>
       <c r="B58">
-        <v>130.27</v>
+        <v>130.27000000000001</v>
       </c>
       <c r="C58">
         <v>123.67</v>
@@ -2267,7 +2285,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44984</v>
       </c>
@@ -2299,12 +2317,12 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44985</v>
       </c>
       <c r="B60">
-        <v>129.8</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="C60">
         <v>116.11</v>
@@ -2331,18 +2349,18 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44986</v>
       </c>
       <c r="B61">
-        <v>142.77</v>
+        <v>142.77000000000001</v>
       </c>
       <c r="C61">
         <v>115.42</v>
       </c>
       <c r="D61">
-        <v>155.33</v>
+        <v>155.33000000000001</v>
       </c>
       <c r="E61">
         <v>29.3</v>
@@ -2363,7 +2381,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44987</v>
       </c>
@@ -2377,7 +2395,7 @@
         <v>151.66</v>
       </c>
       <c r="E62">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="F62">
         <v>1.55</v>
@@ -2395,7 +2413,7 @@
         <v>13.09</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44988</v>
       </c>
@@ -2406,7 +2424,7 @@
         <v>144.18</v>
       </c>
       <c r="D63">
-        <v>151.55</v>
+        <v>151.55000000000001</v>
       </c>
       <c r="E63">
         <v>28.1</v>
@@ -2427,12 +2445,12 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44989</v>
       </c>
       <c r="B64">
-        <v>153.42</v>
+        <v>153.41999999999999</v>
       </c>
       <c r="C64">
         <v>116.03</v>
@@ -2459,12 +2477,12 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44990</v>
       </c>
       <c r="B65">
-        <v>161.08</v>
+        <v>161.08000000000001</v>
       </c>
       <c r="C65">
         <v>163.38</v>
@@ -2491,7 +2509,7 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44991</v>
       </c>
@@ -2499,10 +2517,10 @@
         <v>170.57</v>
       </c>
       <c r="C66">
-        <v>160.17</v>
+        <v>160.16999999999999</v>
       </c>
       <c r="D66">
-        <v>148.36</v>
+        <v>148.36000000000001</v>
       </c>
       <c r="E66">
         <v>28.9</v>
@@ -2520,10 +2538,10 @@
         <v>27.5</v>
       </c>
       <c r="J66">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44992</v>
       </c>
@@ -2555,7 +2573,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44993</v>
       </c>
@@ -2584,10 +2602,10 @@
         <v>26.4</v>
       </c>
       <c r="J68">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44994</v>
       </c>
@@ -2595,10 +2613,10 @@
         <v>121.93</v>
       </c>
       <c r="C69">
-        <v>146.83</v>
+        <v>146.83000000000001</v>
       </c>
       <c r="D69">
-        <v>159.11</v>
+        <v>159.11000000000001</v>
       </c>
       <c r="E69">
         <v>32.1</v>
@@ -2619,7 +2637,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44995</v>
       </c>
@@ -2648,10 +2666,10 @@
         <v>23.2</v>
       </c>
       <c r="J70">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44996</v>
       </c>
@@ -2665,7 +2683,7 @@
         <v>90.55</v>
       </c>
       <c r="E71">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F71">
         <v>1.28</v>
@@ -2683,7 +2701,7 @@
         <v>7.97</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44997</v>
       </c>
@@ -2694,7 +2712,7 @@
         <v>165.49</v>
       </c>
       <c r="D72">
-        <v>147.2</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="E72">
         <v>30.4</v>
@@ -2715,7 +2733,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44998</v>
       </c>
@@ -2729,7 +2747,7 @@
         <v>110.96</v>
       </c>
       <c r="E73">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F73">
         <v>10.85</v>
@@ -2747,7 +2765,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44999</v>
       </c>
@@ -2776,10 +2794,10 @@
         <v>23.6</v>
       </c>
       <c r="J74">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45000</v>
       </c>
@@ -2787,16 +2805,16 @@
         <v>138.88</v>
       </c>
       <c r="C75">
-        <v>154.92</v>
+        <v>154.91999999999999</v>
       </c>
       <c r="D75">
-        <v>155.73</v>
+        <v>155.72999999999999</v>
       </c>
       <c r="E75">
         <v>31.7</v>
       </c>
       <c r="F75">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G75">
         <v>29.7</v>
@@ -2811,18 +2829,18 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45001</v>
       </c>
       <c r="B76">
-        <v>159.33</v>
+        <v>159.33000000000001</v>
       </c>
       <c r="C76">
-        <v>156.52</v>
+        <v>156.52000000000001</v>
       </c>
       <c r="D76">
-        <v>99.40000000000001</v>
+        <v>99.4</v>
       </c>
       <c r="E76">
         <v>28.6</v>
@@ -2843,7 +2861,7 @@
         <v>13.06</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45002</v>
       </c>
@@ -2860,7 +2878,7 @@
         <v>25.7</v>
       </c>
       <c r="F77">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G77">
         <v>28.1</v>
@@ -2872,10 +2890,10 @@
         <v>22.9</v>
       </c>
       <c r="J77">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45003</v>
       </c>
@@ -2886,7 +2904,7 @@
         <v>106.79</v>
       </c>
       <c r="D78">
-        <v>97.48999999999999</v>
+        <v>97.49</v>
       </c>
       <c r="E78">
         <v>31.6</v>
@@ -2907,7 +2925,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45004</v>
       </c>
@@ -2915,10 +2933,10 @@
         <v>147.53</v>
       </c>
       <c r="C79">
-        <v>130.17</v>
+        <v>130.16999999999999</v>
       </c>
       <c r="D79">
-        <v>128.73</v>
+        <v>128.72999999999999</v>
       </c>
       <c r="E79">
         <v>28.3</v>
@@ -2939,12 +2957,12 @@
         <v>13.69</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45005</v>
       </c>
       <c r="B80">
-        <v>135.89</v>
+        <v>135.88999999999999</v>
       </c>
       <c r="C80">
         <v>129.65</v>
@@ -2971,12 +2989,12 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45006</v>
       </c>
       <c r="B81">
-        <v>134.8</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="C81">
         <v>132.69</v>
@@ -3003,7 +3021,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45007</v>
       </c>
@@ -3014,10 +3032,10 @@
         <v>151.04</v>
       </c>
       <c r="D82">
-        <v>140.23</v>
+        <v>140.22999999999999</v>
       </c>
       <c r="E82">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F82">
         <v>7.61</v>
@@ -3026,7 +3044,7 @@
         <v>22.7</v>
       </c>
       <c r="H82">
-        <v>16.51</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="I82">
         <v>30.3</v>
@@ -3035,7 +3053,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45008</v>
       </c>
@@ -3043,7 +3061,7 @@
         <v>135.76</v>
       </c>
       <c r="C83">
-        <v>147.14</v>
+        <v>147.13999999999999</v>
       </c>
       <c r="D83">
         <v>104.25</v>
@@ -3067,12 +3085,12 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45009</v>
       </c>
       <c r="B84">
-        <v>155.08</v>
+        <v>155.08000000000001</v>
       </c>
       <c r="C84">
         <v>168.89</v>
@@ -3090,16 +3108,16 @@
         <v>28.3</v>
       </c>
       <c r="H84">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="I84">
         <v>29.2</v>
       </c>
       <c r="J84">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45010</v>
       </c>
@@ -3131,7 +3149,7 @@
         <v>12.07</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45011</v>
       </c>
@@ -3154,7 +3172,7 @@
         <v>28.8</v>
       </c>
       <c r="H86">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I86">
         <v>24.7</v>
@@ -3163,7 +3181,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45012</v>
       </c>
@@ -3195,7 +3213,7 @@
         <v>10.16</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45013</v>
       </c>
@@ -3206,13 +3224,13 @@
         <v>160.32</v>
       </c>
       <c r="D88">
-        <v>149.23</v>
+        <v>149.22999999999999</v>
       </c>
       <c r="E88">
         <v>26.3</v>
       </c>
       <c r="F88">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="G88">
         <v>24.6</v>
@@ -3227,7 +3245,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45014</v>
       </c>
@@ -3238,7 +3256,7 @@
         <v>117.41</v>
       </c>
       <c r="D89">
-        <v>96.45999999999999</v>
+        <v>96.46</v>
       </c>
       <c r="E89">
         <v>29.2</v>
@@ -3259,7 +3277,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45015</v>
       </c>
@@ -3291,7 +3309,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45016</v>
       </c>
@@ -3314,7 +3332,7 @@
         <v>20.3</v>
       </c>
       <c r="H91">
-        <v>17.67</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="I91">
         <v>25.8</v>
@@ -3323,7 +3341,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45017</v>
       </c>
@@ -3355,7 +3373,7 @@
         <v>9.58</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45018</v>
       </c>
@@ -3366,13 +3384,13 @@
         <v>119.5</v>
       </c>
       <c r="D93">
-        <v>143.98</v>
+        <v>143.97999999999999</v>
       </c>
       <c r="E93">
         <v>31.2</v>
       </c>
       <c r="F93">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="G93">
         <v>21.8</v>
@@ -3387,7 +3405,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45019</v>
       </c>
@@ -3404,7 +3422,7 @@
         <v>28</v>
       </c>
       <c r="F94">
-        <v>8.720000000000001</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="G94">
         <v>22.1</v>
@@ -3419,12 +3437,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45020</v>
       </c>
       <c r="B95">
-        <v>145.33</v>
+        <v>145.33000000000001</v>
       </c>
       <c r="C95">
         <v>164.63</v>
@@ -3436,7 +3454,7 @@
         <v>30.5</v>
       </c>
       <c r="F95">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G95">
         <v>28</v>
@@ -3451,7 +3469,7 @@
         <v>12.68</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45021</v>
       </c>
@@ -3459,10 +3477,10 @@
         <v>123.81</v>
       </c>
       <c r="C96">
-        <v>131.02</v>
+        <v>131.02000000000001</v>
       </c>
       <c r="D96">
-        <v>141.89</v>
+        <v>141.88999999999999</v>
       </c>
       <c r="E96">
         <v>25</v>
@@ -3483,7 +3501,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45022</v>
       </c>
@@ -3515,7 +3533,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45023</v>
       </c>
@@ -3523,7 +3541,7 @@
         <v>179.77</v>
       </c>
       <c r="C98">
-        <v>138.52</v>
+        <v>138.52000000000001</v>
       </c>
       <c r="D98">
         <v>119.94</v>
@@ -3547,7 +3565,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45024</v>
       </c>
@@ -3558,7 +3576,7 @@
         <v>103.54</v>
       </c>
       <c r="D99">
-        <v>90.68000000000001</v>
+        <v>90.68</v>
       </c>
       <c r="E99">
         <v>30.8</v>
@@ -3579,7 +3597,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45025</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>9.35</v>
       </c>
       <c r="G100">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="H100">
         <v>10.63</v>
@@ -3611,7 +3629,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45026</v>
       </c>
@@ -3619,7 +3637,7 @@
         <v>171.65</v>
       </c>
       <c r="C101">
-        <v>158.52</v>
+        <v>158.52000000000001</v>
       </c>
       <c r="D101">
         <v>151.82</v>
@@ -3628,7 +3646,7 @@
         <v>29.6</v>
       </c>
       <c r="F101">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G101">
         <v>29.5</v>
@@ -3640,7 +3658,7 @@
         <v>30.2</v>
       </c>
       <c r="J101">
-        <v>8.619999999999999</v>
+        <v>8.6199999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Potato_Price_Data.xlsx
+++ b/Sample_Potato_Price_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheshan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF19509-7FAA-4F0B-9187-5F833AF081D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF47EFF-2AF2-4F21-A65A-78E87047C581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sample_Potato_Price_Data.xlsx
+++ b/Sample_Potato_Price_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheshan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheshan\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF47EFF-2AF2-4F21-A65A-78E87047C581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C10BE25-1A3A-4CDC-B670-985E7E1D5397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
